--- a/DLS_Plots/20231027_DLS_DIPPolymers_01PBS.xlsx
+++ b/DLS_Plots/20231027_DLS_DIPPolymers_01PBS.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aryellewright/Documents/Kumar-Biomaterials-Lab/DLS_Plots/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aryellewright/Documents/Documents - Aryelle’s MacBook Air/Kumar-Biomaterials-Lab/DLS_Plots/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B42628B1-1AE3-0646-8DCF-FA3F6129FE0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3F8CFA7-0EA5-C24A-86C2-4C4DA53E6FF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="80" yWindow="660" windowWidth="25440" windowHeight="15480" xr2:uid="{0D726EA0-2D8A-964D-AFA1-0ED9CB937CC2}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="12">
   <si>
     <t>Polymer</t>
   </si>
@@ -60,7 +60,19 @@
     <t>DIP G3</t>
   </si>
   <si>
-    <t>DIP G1</t>
+    <t>S1</t>
+  </si>
+  <si>
+    <t>B1</t>
+  </si>
+  <si>
+    <t>G1</t>
+  </si>
+  <si>
+    <t>G2</t>
+  </si>
+  <si>
+    <t>G3</t>
   </si>
 </sst>
 </file>
@@ -416,7 +428,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -438,7 +450,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B2">
         <v>205.09333333333333</v>
@@ -449,7 +461,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B3">
         <v>2008.63</v>
@@ -460,7 +472,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B4">
         <v>2507.9133333333334</v>
@@ -471,7 +483,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>2025.0966666666666</v>
@@ -482,7 +494,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B6">
         <v>2119.0699999999997</v>
@@ -493,6 +505,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
